--- a/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_6.xlsx
+++ b/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_6.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9866612470929058</v>
+        <v>0.9427646068061601</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8083856143954469</v>
+        <v>0.7029216973460635</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7882508536798203</v>
+        <v>0.7724019160068974</v>
       </c>
       <c r="E2" t="n">
-        <v>0.988993946025435</v>
+        <v>0.9420680525659078</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05552291507823457</v>
+        <v>0.1837420495551502</v>
       </c>
       <c r="G2" t="n">
-        <v>1.281326278840765</v>
+        <v>1.986563977766677</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7574144184663342</v>
+        <v>0.8141051495481716</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04692341006680386</v>
+        <v>0.2208262903211726</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4300688450292992</v>
+        <v>1.178446285818156</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2356330093137092</v>
+        <v>0.4286514312995469</v>
       </c>
       <c r="L2" t="n">
-        <v>1.853680186054028</v>
+        <v>0.9220624433105159</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2393439936638069</v>
+        <v>0.4354022628482871</v>
       </c>
       <c r="N2" t="n">
-        <v>135.781918918301</v>
+        <v>37.38844481910468</v>
       </c>
       <c r="O2" t="n">
-        <v>277.1170914615174</v>
+        <v>74.3530284073305</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9863936857359691</v>
+        <v>0.9425868923314985</v>
       </c>
       <c r="C3" t="n">
-        <v>0.807854766841673</v>
+        <v>0.7027072096921513</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7873240143850359</v>
+        <v>0.7729356272661805</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9886511632385322</v>
+        <v>0.9423912188043991</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05663664636952442</v>
+        <v>0.1843125640565418</v>
       </c>
       <c r="G3" t="n">
-        <v>1.284876058877178</v>
+        <v>1.987998257696012</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7607296688825479</v>
+        <v>0.8121960953200734</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04838483641550735</v>
+        <v>0.2195944380399371</v>
       </c>
       <c r="J3" t="n">
-        <v>0.436101021568301</v>
+        <v>1.18322884063072</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2379845506950492</v>
+        <v>0.4293163915535276</v>
       </c>
       <c r="L3" t="n">
-        <v>1.870804112897979</v>
+        <v>0.9218204491322533</v>
       </c>
       <c r="M3" t="n">
-        <v>0.241732569471224</v>
+        <v>0.4360776955615516</v>
       </c>
       <c r="N3" t="n">
-        <v>135.7421980818545</v>
+        <v>37.38224448972716</v>
       </c>
       <c r="O3" t="n">
-        <v>277.0773706250709</v>
+        <v>74.34682807795298</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9861039011764381</v>
+        <v>0.9424038382488771</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8073963121859771</v>
+        <v>0.7024886050829324</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7866639786440772</v>
+        <v>0.7734701358695564</v>
       </c>
       <c r="E4" t="n">
-        <v>0.988371714978174</v>
+        <v>0.9427104575414579</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05784288233490222</v>
+        <v>0.184900220232964</v>
       </c>
       <c r="G4" t="n">
-        <v>1.287941747270807</v>
+        <v>1.989460067724441</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7630905784568858</v>
+        <v>0.8102841890383873</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04957624119541713</v>
+        <v>0.2183775566963279</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4408670849359722</v>
+        <v>1.188025497983034</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2405054725674703</v>
+        <v>0.4300002560847656</v>
       </c>
       <c r="L4" t="n">
-        <v>1.889350324707962</v>
+        <v>0.9215711839984709</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2442931933431384</v>
+        <v>0.4367723302755429</v>
       </c>
       <c r="N4" t="n">
-        <v>135.7000497389477</v>
+        <v>37.37587789899496</v>
       </c>
       <c r="O4" t="n">
-        <v>277.0352222821641</v>
+        <v>74.34046148722078</v>
       </c>
     </row>
     <row r="5">
@@ -659,242 +659,242 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9858011047686963</v>
+        <v>0.9422153729444481</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8068950815723097</v>
+        <v>0.7022657633767446</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7861577258923435</v>
+        <v>0.7740054523566819</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9880725620490588</v>
+        <v>0.9430258292225109</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05910328046583222</v>
+        <v>0.1855052479854341</v>
       </c>
       <c r="G5" t="n">
-        <v>1.291293478692356</v>
+        <v>1.99095021123981</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7649014151956163</v>
+        <v>0.8083693930033722</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0508516552173725</v>
+        <v>0.2171754158831174</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4472915926388289</v>
+        <v>1.192836991533649</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2431116625459014</v>
+        <v>0.4307032017357592</v>
       </c>
       <c r="L5" t="n">
-        <v>1.908729294803436</v>
+        <v>0.92131455039244</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2469404282084956</v>
+        <v>0.4374863466178518</v>
       </c>
       <c r="N5" t="n">
-        <v>135.6569376981489</v>
+        <v>37.36934421261646</v>
       </c>
       <c r="O5" t="n">
-        <v>276.9921102413653</v>
+        <v>74.33392780084229</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_6_2</t>
+          <t>model_1_6_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9843751919020387</v>
+        <v>0.9420214023493646</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8068826541817963</v>
+        <v>0.7020383917263134</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7833363860733618</v>
+        <v>0.7745406846336422</v>
       </c>
       <c r="E6" t="n">
-        <v>0.986406639273458</v>
+        <v>0.9433371074302059</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06503868084065202</v>
+        <v>0.1861279493019668</v>
       </c>
       <c r="G6" t="n">
-        <v>1.291376580709942</v>
+        <v>1.992470646513193</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7749931841374316</v>
+        <v>0.8064548981832359</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05795418058384814</v>
+        <v>0.215988878663023</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4728426859436651</v>
+        <v>1.19766656773117</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2550268237669364</v>
+        <v>0.4314254852253942</v>
       </c>
       <c r="L6" t="n">
-        <v>1.999987718269523</v>
+        <v>0.9210504202204114</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2590432413079704</v>
+        <v>0.43822000535043</v>
       </c>
       <c r="N6" t="n">
-        <v>135.4655461924521</v>
+        <v>37.36264188458077</v>
       </c>
       <c r="O6" t="n">
-        <v>276.8007187356685</v>
+        <v>74.3272254728066</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_6_5</t>
+          <t>model_1_6_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.985509476389406</v>
+        <v>0.9418218589706098</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8064044680767009</v>
+        <v>0.7018065879312643</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7854690101570246</v>
+        <v>0.7750764266517631</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9877645638409264</v>
+        <v>0.9436444261560598</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06031719138018238</v>
+        <v>0.1867685408545295</v>
       </c>
       <c r="G7" t="n">
-        <v>1.294574213396559</v>
+        <v>1.994020719558045</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7673649114468188</v>
+        <v>0.8045385800485244</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0521647803622647</v>
+        <v>0.2148174342841892</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4520621201724302</v>
+        <v>1.20250498763054</v>
       </c>
       <c r="K7" t="n">
-        <v>0.245595585017692</v>
+        <v>0.4321672602760759</v>
       </c>
       <c r="L7" t="n">
-        <v>1.927393511078016</v>
+        <v>0.9207787015770006</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2494634699762054</v>
+        <v>0.4389734626166569</v>
       </c>
       <c r="N7" t="n">
-        <v>135.6162762367322</v>
+        <v>37.35577035642616</v>
       </c>
       <c r="O7" t="n">
-        <v>276.9514487799486</v>
+        <v>74.32035394465198</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_6_4</t>
+          <t>model_1_6_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9852767321477381</v>
+        <v>0.9416166421160379</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8059993623780904</v>
+        <v>0.7015700550785746</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7849968305142883</v>
+        <v>0.7756119067505511</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9874904614688222</v>
+        <v>0.9439477101487398</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06128599549965895</v>
+        <v>0.1874273458938274</v>
       </c>
       <c r="G8" t="n">
-        <v>1.297283157068507</v>
+        <v>1.995602415833114</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7690538706503383</v>
+        <v>0.8026231987840799</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05333339338526523</v>
+        <v>0.2136613695913269</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4557657115548502</v>
+        <v>1.207358459846848</v>
       </c>
       <c r="K8" t="n">
-        <v>0.247560084625246</v>
+        <v>0.4329288000281656</v>
       </c>
       <c r="L8" t="n">
-        <v>1.942289142544759</v>
+        <v>0.9204992573494984</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2514589084887991</v>
+        <v>0.4397469958585815</v>
       </c>
       <c r="N8" t="n">
-        <v>135.5844078410949</v>
+        <v>37.34872799446204</v>
       </c>
       <c r="O8" t="n">
-        <v>276.9195803843113</v>
+        <v>74.31331158268786</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_6_3</t>
+          <t>model_1_6_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.984939793768758</v>
+        <v>0.9414056198188097</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8053480726989724</v>
+        <v>0.7013287062578687</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7844368293581192</v>
+        <v>0.7761473198332807</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9871844926724361</v>
+        <v>0.944246833598805</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06268851049735152</v>
+        <v>0.188104788071314</v>
       </c>
       <c r="G9" t="n">
-        <v>1.301638334151683</v>
+        <v>1.997216316508484</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7710569623152221</v>
+        <v>0.8007080572321906</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05463786629932252</v>
+        <v>0.2125211641476706</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4656480694936517</v>
+        <v>1.212225160543296</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2503767371329683</v>
+        <v>0.4337104887725383</v>
       </c>
       <c r="L9" t="n">
-        <v>1.963853198799491</v>
+        <v>0.9202119078383791</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2543199204578986</v>
+        <v>0.440540995419276</v>
       </c>
       <c r="N9" t="n">
-        <v>135.5391541875821</v>
+        <v>37.34151217614908</v>
       </c>
       <c r="O9" t="n">
-        <v>276.8743267307985</v>
+        <v>74.3060957643749</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9826615914411073</v>
+        <v>0.9411887191630663</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8027715835376212</v>
+        <v>0.7010826714857818</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7818160495400081</v>
+        <v>0.7766831406220012</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9844493263573053</v>
+        <v>0.9445418881668265</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07217158850698359</v>
+        <v>0.1888011014678371</v>
       </c>
       <c r="G10" t="n">
-        <v>1.31886732903728</v>
+        <v>1.998861552162316</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7804313397630607</v>
+        <v>0.798791457339612</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06629902395877005</v>
+        <v>0.2113964685594092</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4771331054048888</v>
+        <v>1.217098384698852</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2686477033346528</v>
+        <v>0.4345124871253265</v>
       </c>
       <c r="L10" t="n">
-        <v>2.109658147769132</v>
+        <v>0.9199165537539626</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2728786361129941</v>
+        <v>0.4413556244444165</v>
       </c>
       <c r="N10" t="n">
-        <v>135.2574176430255</v>
+        <v>37.33412238248401</v>
       </c>
       <c r="O10" t="n">
-        <v>276.5925901862419</v>
+        <v>74.29870597070983</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9822594284477534</v>
+        <v>0.9409658833715198</v>
       </c>
       <c r="C11" t="n">
-        <v>0.802131869706612</v>
+        <v>0.7008315358366036</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7811241091819126</v>
+        <v>0.7772184194359051</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9838958194497548</v>
+        <v>0.9448327423867174</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07384560270329737</v>
+        <v>0.1895164683547973</v>
       </c>
       <c r="G11" t="n">
-        <v>1.323145098370849</v>
+        <v>2.000540897404743</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7829063703029613</v>
+        <v>0.7968767960595265</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06865885534409905</v>
+        <v>0.2102877839519078</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4814912586567061</v>
+        <v>1.221978505119317</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2717454741174126</v>
+        <v>0.4353348921862309</v>
       </c>
       <c r="L11" t="n">
-        <v>2.135396579343784</v>
+        <v>0.919613117782495</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2760251936889477</v>
+        <v>0.4421909815629266</v>
       </c>
       <c r="N11" t="n">
-        <v>135.211557630805</v>
+        <v>37.32655870797732</v>
       </c>
       <c r="O11" t="n">
-        <v>276.5467301740214</v>
+        <v>74.29114229620313</v>
       </c>
     </row>
   </sheetData>
